--- a/biology/Botanique/Onagraceae/Onagraceae.xlsx
+++ b/biology/Botanique/Onagraceae/Onagraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Onagraceae (Onagracées ou Œnothéracées) se compose de plantes dicotylédones. Elle comprend une vingtaine de genres et environ 640 espèces.
 Ce sont des arbustes (quelquefois des arbres) et des plantes herbacées annuelles, bisannuelles ou pérennes, parfois aquatiques, des régions froides à tropicales.
@@ -521,12 +533,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Les Onagraceae sont aussi nommées Œnotheracea, en effet le genre type Oenothera est appelé communément « herbe aux ânes » en référence à l’âne Equus hemionus, hémione ou onagre, commun au Proche Orient et en Asie.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Onagraceae sont aussi nommées Œnotheracea, en effet le genre type Oenothera est appelé communément « herbe aux ânes » en référence à l’âne Equus hemionus, hémione ou onagre, commun au Proche Orient et en Asie.
 Le nom de famille « Onagraceae » vient du grec onagra, formé des mots grecs ονοσ / onos, « âne » et αγριοσ / agrios, « sauvage »), attesté dans cet emploi chez Dioscoride, par l'intermédiaire du latin onagra ou oenagra, par rapprochement avec le préfixe oeno-, vin, du fait de l'odeur vineuse des racines séchées de la plante ou de l'utilisation de la racine infusée pour apprivoiser les bêtes sauvages.
-Le nom de genre Oenothera vient du grec οινοί / oïnos', « vin » et du suffixe ther, « bête sauvage ; chasser ; rechercher », littéralement « vin pour chasser (ou chercher) les bêtes sauvages »[1].
-Nom vernaculaire
-La plante est appelée « evening primrose », littéralement « primevère du soir » et que l’on traduit par « onagre ».
+Le nom de genre Oenothera vient du grec οινοί / oïnos', « vin » et du suffixe ther, « bête sauvage ; chasser ; rechercher », littéralement « vin pour chasser (ou chercher) les bêtes sauvages ».
 </t>
         </is>
       </c>
@@ -552,12 +567,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est appelée « evening primrose », littéralement « primevère du soir » et que l’on traduit par « onagre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Onagraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onagraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (1 juin 2010) :
 Camissonia
 Cammissoniopsis
 Chamerion
@@ -579,7 +633,7 @@
 Taraxia
 Tetrapteron
 Xylonagra
-Selon NCBI  (1 juin 2010)[3] :
+Selon NCBI  (1 juin 2010) :
 Calylophus
 Camissonia
 Chamerion
@@ -599,7 +653,7 @@
 Oenothera
 Stenosiphon
 Xylonagra
-Selon DELTA Angio           (1 juin 2010)[4] :
+Selon DELTA Angio           (1 juin 2010) :
 Boisduvallia
 Calylophus
 Camissonia
@@ -617,7 +671,7 @@
 Oenothera
 Stenosiphon
 Xylonagra
-Selon ITIS      (1 juin 2010)[5] :
+Selon ITIS      (1 juin 2010) :
 Boisduvalia Spach
 Calylophus Spach
 Camissonia Link
